--- a/resources/scripts/Mod.xlsx
+++ b/resources/scripts/Mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasTrappe\PycharmProjects\WarnoModEditor\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B2C78A-6997-4860-A44C-857B1E3C05BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A6579-BD18-4110-B668-F01F155F80C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>unit_name</t>
   </si>
@@ -238,15 +238,9 @@
     <t>arme_family</t>
   </si>
   <si>
-    <t>max_range_ground</t>
-  </si>
-  <si>
     <t>acc_stationary</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -302,13 +296,22 @@
   </si>
   <si>
     <t>bad</t>
+  </si>
+  <si>
+    <t>range_ground</t>
+  </si>
+  <si>
+    <t>acc_moving</t>
+  </si>
+  <si>
+    <t>Canon_AP_105mm_L7A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +323,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D099058-11FA-4459-8E86-F7DD15C7CBA1}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -747,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -805,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -834,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -863,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -883,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -932,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -961,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1001,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1021,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1041,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1061,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1090,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1110,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1130,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1170,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1190,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1210,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1250,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1270,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1330,28 +1339,28 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1369,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1409,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1429,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1449,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1469,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1489,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1509,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1538,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1558,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1578,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1598,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1618,12 +1627,12 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>21</v>
@@ -1638,12 +1647,12 @@
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>21</v>
@@ -1658,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1678,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,7 +1750,7 @@
         <v>190</v>
       </c>
       <c r="L49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1764,7 +1773,7 @@
         <v>160</v>
       </c>
       <c r="L50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -1804,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -1824,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1844,12 +1853,12 @@
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -1881,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1901,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -1941,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,12 +1970,12 @@
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1981,23 +1990,23 @@
         <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2008,17 +2017,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917249CD-8E0F-4F75-8602-A2A546E4DA15}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2033,27 +2042,56 @@
         <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2275</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>2275</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2076,13 +2114,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
@@ -2099,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2127,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scripts/Mod.xlsx
+++ b/resources/scripts/Mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasTrappe\PycharmProjects\WarnoModEditor\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A6579-BD18-4110-B668-F01F155F80C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4FE63-204C-4B41-90E8-3246FD4959C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{100B8A9B-1467-4036-B196-90CCBCF25F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D099058-11FA-4459-8E86-F7DD15C7CBA1}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -920,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -998,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1147,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1167,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -1821,7 +1821,7 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>7</v>
@@ -1841,7 +1841,7 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>7</v>
@@ -1861,7 +1861,7 @@
         <v>76</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>7</v>
@@ -1878,7 +1878,7 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -1898,7 +1898,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <v>7</v>
@@ -2019,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917249CD-8E0F-4F75-8602-A2A546E4DA15}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
